--- a/Koszty_template.xlsx
+++ b/Koszty_template.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flexbotics\Desktop\2Handle\AppKalkulator v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FDD047-48AD-4AC2-AC6B-5C3B9A4C304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855799F-4E8A-425A-815E-23D858C5BFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
-    <sheet name="WC__Ocynk" sheetId="2" r:id="rId2"/>
+    <sheet name="WC_Malowanie_cena_dm2" sheetId="2" r:id="rId2"/>
+    <sheet name="WC__Ocynk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>workcell_id</t>
   </si>
@@ -32,18 +33,39 @@
     <t>source_file</t>
   </si>
   <si>
+    <t>Malowanie</t>
+  </si>
+  <si>
+    <t>malowanie.py</t>
+  </si>
+  <si>
     <t>Ocynk</t>
   </si>
   <si>
     <t>ocynk.py</t>
   </si>
   <si>
-    <t>Ocynk (id=8)</t>
+    <t>Malowanie / Rodzaje farby</t>
+  </si>
+  <si>
+    <t>DEFAULT=DEFAULT | formula=by_dm2 (Wycena wg powierzchni)</t>
+  </si>
+  <si>
+    <t>Rodzaje farby</t>
+  </si>
+  <si>
+    <t>Cena zł/dm2</t>
+  </si>
+  <si>
+    <t>Ocynk (id=11)</t>
   </si>
   <si>
     <t>typ_ocynku = OGNIOWY</t>
   </si>
   <si>
+    <t>Formula: by_kg - Wycena wg masy</t>
+  </si>
+  <si>
     <t>param_key</t>
   </si>
   <si>
@@ -59,22 +81,31 @@
     <t>cena_kg</t>
   </si>
   <si>
-    <t>Cena za kg</t>
+    <t>Cena [zł/kg]</t>
   </si>
   <si>
     <t>zł/kg</t>
   </si>
   <si>
+    <t>typ_ocynku = GALWANICZNY</t>
+  </si>
+  <si>
+    <t>Formula: by_dm2 - Wycena wg powierzchni</t>
+  </si>
+  <si>
     <t>cena_dm2</t>
   </si>
   <si>
-    <t>Cena za dm²</t>
+    <t>Cena [zł/dm²]</t>
   </si>
   <si>
     <t>zł/dm2</t>
   </si>
   <si>
-    <t>typ_ocynku = GALWANICZNY</t>
+    <t>Zwykla</t>
+  </si>
+  <si>
+    <t>Specjalna</t>
   </si>
 </sst>
 </file>
@@ -106,12 +137,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,11 +167,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +488,7 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,13 +504,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -479,125 +531,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>2</v>
